--- a/ResultadoEleicoesDistritos/R. A. AÇORES_PONTA DELGADA.xlsx
+++ b/ResultadoEleicoesDistritos/R. A. AÇORES_PONTA DELGADA.xlsx
@@ -597,64 +597,64 @@
         <v>19614</v>
       </c>
       <c r="H2" t="n">
-        <v>710</v>
+        <v>751</v>
       </c>
       <c r="I2" t="n">
-        <v>1964</v>
+        <v>1966</v>
       </c>
       <c r="J2" t="n">
-        <v>8207</v>
+        <v>7991</v>
       </c>
       <c r="K2" t="n">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="L2" t="n">
-        <v>2153</v>
+        <v>2168</v>
       </c>
       <c r="M2" t="n">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="N2" t="n">
-        <v>1420</v>
+        <v>1383</v>
       </c>
       <c r="O2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P2" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q2" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="R2" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="S2" t="n">
-        <v>870</v>
+        <v>828</v>
       </c>
       <c r="T2" t="n">
-        <v>1426</v>
+        <v>1383</v>
       </c>
       <c r="U2" t="n">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="V2" t="n">
-        <v>12477</v>
+        <v>12655</v>
       </c>
       <c r="W2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X2" t="n">
-        <v>12556</v>
+        <v>12616</v>
       </c>
       <c r="Y2" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Z2" t="n">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="AA2" t="n">
-        <v>81</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
